--- a/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods_TRIPHAMMER_20250228.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods_TRIPHAMMER_20250228.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.72</t>
+          <t>153.44</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1119,7 +1119,736 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>43.74</t>
+          <t>87.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>58997</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Roasted Red Pepper (Strips)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7520950</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Can - Pizza Sauce</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>7206874</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Can - Tomato - Crushed</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>76883</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pasta - Egg Noodle (Wide)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>8976417</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lemon Juice</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>8457368</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Oil - Corn</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1028165</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pickle - Dill Chip</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1132582</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7722184</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Parmesan (Grated)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>59.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>59.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1027629</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cheddar - (Sliced)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>34.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>698.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1035842</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Feta - Pail</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>185.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3036746</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Smoked Turkey (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>76.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>458.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6364494</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Yogurt - Greek (Bulk)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>11072</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Vegan Chicken Tenders</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3275539</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sauerkraut</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>7529232</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Wrap - Wheat (10")</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>59.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1059229</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Broccoli - FRZ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>33.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>37524</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Spanakopita</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>226.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5514021</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Bacon (Pre-Cooked)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>502.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4124566</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Bacon Thick Cut (Smoked)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>49.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>148.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45340</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Green Bean - FRZ Whole</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>6743058</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Arugula - Fresh</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>73.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>7228448</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Carrots - Jumbo Fresh</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>7006521</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Onion - Red Jumbo Fresh</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18.81</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6136985</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Onion - Yellow Fresh</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>5365192</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Garlic - Fresh (Peeled)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>88070</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Pineapple - Fresh</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.00</t>
         </is>
       </c>
     </row>

--- a/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods_TRIPHAMMER_20250228.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods_TRIPHAMMER_20250228.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15.34</t>
+          <t>46.02</t>
         </is>
       </c>
     </row>
